--- a/URS/DbLayouts/L5-管理性作業/CollMeet.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/CollMeet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60321823-252D-4B8E-824D-5F7CD1E5BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34586302-AE55-4ABF-9F4A-E801746C50EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t xml:space="preserve">CaseCode= ,AND CustNo= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/18 已與舜文確認只需填入時間此欄位由6碼改成4碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +913,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -919,7 +923,7 @@
     <col min="3" max="3" width="28" style="18" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1166,7 +1170,10 @@
         <v>36</v>
       </c>
       <c r="E16" s="23">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5">
